--- a/src/WindowsApplication/WindowsApplication/bin/Debug/QC.xlsx
+++ b/src/WindowsApplication/WindowsApplication/bin/Debug/QC.xlsx
@@ -1,17 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -257,14 +253,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -603,9 +599,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="42.75" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3354,56 +3350,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/WindowsApplication/WindowsApplication/bin/Debug/QC.xlsx
+++ b/src/WindowsApplication/WindowsApplication/bin/Debug/QC.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\School\WinFormExcelDataProcessApplication\src\WindowsApplication\WindowsApplication\bin\Debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="8055"/>
   </bookViews>
@@ -248,19 +253,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -294,7 +299,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -302,12 +307,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -349,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,12 +607,12 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -636,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -668,7 +676,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -700,7 +708,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -732,7 +740,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -764,7 +772,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -796,7 +804,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -828,7 +836,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -860,7 +868,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -889,7 +897,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -921,7 +929,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -953,7 +961,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -982,7 +990,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1011,7 +1019,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1043,7 +1051,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1075,7 +1083,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1104,7 +1112,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1136,7 +1144,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1168,7 +1176,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1197,7 +1205,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1229,7 +1237,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1258,7 +1266,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1290,7 +1298,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1319,7 +1327,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1351,7 +1359,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1412,7 +1420,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1444,7 +1452,7 @@
         <v>46.81</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1473,7 +1481,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1505,7 +1513,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1537,7 +1545,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1569,7 +1577,7 @@
         <v>18.37</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1601,7 +1609,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1633,7 +1641,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1665,7 +1673,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1697,7 +1705,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1726,7 +1734,7 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1758,7 +1766,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1790,7 +1798,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1822,7 +1830,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1854,7 +1862,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1886,7 +1894,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1918,7 +1926,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1950,7 +1958,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1982,7 +1990,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>45</v>
       </c>
@@ -2014,7 +2022,7 @@
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>46</v>
       </c>
@@ -2046,7 +2054,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>47</v>
       </c>
@@ -2078,7 +2086,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>48</v>
       </c>
@@ -2110,7 +2118,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>49</v>
       </c>
@@ -2142,7 +2150,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>50</v>
       </c>
@@ -2174,7 +2182,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>51</v>
       </c>
@@ -2206,7 +2214,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>52</v>
       </c>
@@ -2238,7 +2246,7 @@
         <v>30.27</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>53</v>
       </c>
@@ -2267,7 +2275,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>54</v>
       </c>
@@ -2299,7 +2307,7 @@
         <v>30.85</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>55</v>
       </c>
@@ -2328,7 +2336,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>56</v>
       </c>
@@ -2360,7 +2368,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>57</v>
       </c>
@@ -2392,7 +2400,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>58</v>
       </c>
@@ -2424,7 +2432,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>59</v>
       </c>
@@ -2456,7 +2464,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>60</v>
       </c>
@@ -2488,7 +2496,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>61</v>
       </c>
@@ -2520,7 +2528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>62</v>
       </c>
@@ -2552,7 +2560,7 @@
         <v>7.82</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>63</v>
       </c>
@@ -2584,7 +2592,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>64</v>
       </c>
@@ -2616,7 +2624,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>65</v>
       </c>
@@ -2648,7 +2656,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>66</v>
       </c>
@@ -2680,7 +2688,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>67</v>
       </c>
@@ -2712,7 +2720,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>68</v>
       </c>
@@ -2744,7 +2752,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>69</v>
       </c>
@@ -2776,7 +2784,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>70</v>
       </c>
@@ -2808,7 +2816,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>71</v>
       </c>
@@ -2840,7 +2848,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>72</v>
       </c>
@@ -2869,7 +2877,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>73</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>74</v>
       </c>
@@ -2933,7 +2941,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>75</v>
       </c>
@@ -2965,7 +2973,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>76</v>
       </c>
@@ -2997,7 +3005,7 @@
         <v>34.159999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>77</v>
       </c>
@@ -3029,7 +3037,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>78</v>
       </c>
@@ -3061,7 +3069,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>79</v>
       </c>
@@ -3093,7 +3101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3125,7 +3133,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>81</v>
       </c>
@@ -3157,7 +3165,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>82</v>
       </c>
@@ -3189,7 +3197,7 @@
         <v>23.88</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>83</v>
       </c>
@@ -3218,7 +3226,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>84</v>
       </c>
@@ -3250,7 +3258,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>85</v>
       </c>
@@ -3282,7 +3290,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>86</v>
       </c>
@@ -3314,7 +3322,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>87</v>
       </c>

--- a/src/WindowsApplication/WindowsApplication/bin/Debug/QC.xlsx
+++ b/src/WindowsApplication/WindowsApplication/bin/Debug/QC.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\School\WinFormExcelDataProcessApplication\src\WindowsApplication\WindowsApplication\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="8055"/>
   </bookViews>
@@ -253,19 +248,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -299,7 +294,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -307,15 +302,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -357,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,7 +384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,12 +599,12 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="42.75" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -644,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -676,7 +668,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -708,7 +700,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -740,7 +732,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -772,7 +764,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -804,7 +796,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -836,7 +828,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -868,7 +860,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -897,7 +889,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -929,7 +921,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -961,7 +953,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -990,7 +982,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1019,7 +1011,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1051,7 +1043,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1083,7 +1075,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1112,7 +1104,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1144,7 +1136,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1176,7 +1168,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1205,7 +1197,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1237,7 +1229,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1266,7 +1258,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1298,7 +1290,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1327,7 +1319,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1359,7 +1351,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1388,7 +1380,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1420,7 +1412,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1452,7 +1444,7 @@
         <v>46.81</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1481,7 +1473,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1513,7 +1505,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1545,7 +1537,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1577,7 +1569,7 @@
         <v>18.37</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1609,7 +1601,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1641,7 +1633,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1673,7 +1665,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1705,7 +1697,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1734,7 +1726,7 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1766,7 +1758,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1798,7 +1790,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1830,7 +1822,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1862,7 +1854,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1894,7 +1886,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1926,7 +1918,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1958,7 +1950,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1990,7 +1982,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>45</v>
       </c>
@@ -2022,7 +2014,7 @@
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>46</v>
       </c>
@@ -2054,7 +2046,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>47</v>
       </c>
@@ -2086,7 +2078,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>48</v>
       </c>
@@ -2118,7 +2110,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>49</v>
       </c>
@@ -2150,7 +2142,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>50</v>
       </c>
@@ -2182,7 +2174,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>51</v>
       </c>
@@ -2214,7 +2206,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>52</v>
       </c>
@@ -2246,7 +2238,7 @@
         <v>30.27</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>53</v>
       </c>
@@ -2275,7 +2267,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>54</v>
       </c>
@@ -2307,7 +2299,7 @@
         <v>30.85</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>55</v>
       </c>
@@ -2336,7 +2328,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>56</v>
       </c>
@@ -2368,7 +2360,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>57</v>
       </c>
@@ -2400,7 +2392,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>58</v>
       </c>
@@ -2432,7 +2424,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>59</v>
       </c>
@@ -2464,7 +2456,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>60</v>
       </c>
@@ -2496,7 +2488,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>61</v>
       </c>
@@ -2528,7 +2520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>62</v>
       </c>
@@ -2560,7 +2552,7 @@
         <v>7.82</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>63</v>
       </c>
@@ -2592,7 +2584,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>64</v>
       </c>
@@ -2624,7 +2616,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>65</v>
       </c>
@@ -2656,7 +2648,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>66</v>
       </c>
@@ -2688,7 +2680,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>67</v>
       </c>
@@ -2720,7 +2712,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>68</v>
       </c>
@@ -2752,7 +2744,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>69</v>
       </c>
@@ -2784,7 +2776,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>70</v>
       </c>
@@ -2816,7 +2808,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>71</v>
       </c>
@@ -2848,7 +2840,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>72</v>
       </c>
@@ -2877,7 +2869,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>73</v>
       </c>
@@ -2909,7 +2901,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>74</v>
       </c>
@@ -2941,7 +2933,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>75</v>
       </c>
@@ -2973,7 +2965,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>76</v>
       </c>
@@ -3005,7 +2997,7 @@
         <v>34.159999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>77</v>
       </c>
@@ -3037,7 +3029,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>78</v>
       </c>
@@ -3069,7 +3061,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>79</v>
       </c>
@@ -3101,7 +3093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3133,7 +3125,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>81</v>
       </c>
@@ -3165,7 +3157,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>82</v>
       </c>
@@ -3197,7 +3189,7 @@
         <v>23.88</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>83</v>
       </c>
@@ -3226,7 +3218,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>84</v>
       </c>
@@ -3258,7 +3250,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>85</v>
       </c>
@@ -3290,7 +3282,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>86</v>
       </c>
@@ -3322,7 +3314,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>87</v>
       </c>
